--- a/ResultsTask1/FormTask1_17-18c.xlsx
+++ b/ResultsTask1/FormTask1_17-18c.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fnoardo/Documents/geoBIM/benchmark/benchmarkExe/FinalOutcomes/ResultsTask1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:20001_{6AD7D94A-39D1-FB43-B99C-8F9C23812F91}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{760500E6-E31C-AA45-9DD2-D7FE3EB88C57}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="45120" yWindow="1100" windowWidth="20360" windowHeight="20500" tabRatio="204" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28820" yWindow="460" windowWidth="20360" windowHeight="20500" tabRatio="204" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ezWqS1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -30,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15326" uniqueCount="502">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15347" uniqueCount="517">
   <si>
     <t>#</t>
   </si>
@@ -1549,12 +1548,135 @@
   <si>
     <t>Same as 51</t>
   </si>
+  <si>
+    <t>FME Desktop</t>
+  </si>
+  <si>
+    <t>2019.2 b19800</t>
+  </si>
+  <si>
+    <t>dean.hintz@safe.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+●	The IFC reader does not support the following type: 'IfcRevolvedAreaSolid'. All instances of this type will be skipped
+●	The IFC reader does not support the following type: 'IfcSweptDiskSolid'. All instances of this type will be skipped
+●	Error encountered while copying traits to generated solids. Some solid components may be missing traits, appearances, measures or attributes
+●	Error encountered while copying traits to generated solids. Some solid components may be missing traits, appearances, measures or attributes
+●	Worker 97152 &gt; The IFC reader does not support the following type: 'IfcRevolvedAreaSolid'. All instances of this type will be skipped
+●	Worker 97152 &gt; The IFC reader does not support the following type: 'IfcSweptDiskSolid'. All instances of this type will be skipped
+●	Error encountered while copying traits to generated solids. Some solid components may be missing traits, appearances, measures or attributes
+●	Error encountered while copying traits to generated solids. Some solid components may be missing traits, appearances, measures or attributes
+●	The IFC reader does not support the following type: 'IfcRevolvedAreaSolid'. All instances of this type will be skipped
+●	The IFC reader does not support the following type: 'IfcSweptDiskSolid'. All instances of this type will be skipped
+●	Error encountered while copying traits to generated solids. Some solid components may be missing traits, appearances, measures or attributes
+●	Logging limit reached for the preceding message. Further instances of this message will not be logged
+●	Worker 105320 &gt; The IFC reader does not support the following type: 'IfcRevolvedAreaSolid'. All instances of this type will be skipped
+●	Worker 105320 &gt; The IFC reader does not support the following type: 'IfcSweptDiskSolid'. All instances of this type will be skipped
+●	The IFC reader does not support the following type: 'IfcRevolvedAreaSolid'. All instances of this type will be skipped
+●	The IFC reader does not support the following type: 'IfcSweptDiskSolid'. All instances of this type will be skipped
+●	Worker 58052 &gt; The IFC reader does not support the following type: 'IfcRevolvedAreaSolid'. All instances of this type will be skipped
+●	Worker 58052 &gt; The IFC reader does not support the following type: 'IfcSweptDiskSolid'. All instances of this type will be skipped
+</t>
+  </si>
+  <si>
+    <t>\\fs2\pserv\Projects\GeoBIM\Task1_IFC\screenshots\jovita\task1_form17_56.1.2.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">●	File opens in the Data Inspector in 3D view from bird’s eye view (top down)
+●	Geometries read in as feature type IfcBuildingElementProxy
+●	Table view below showing selected feature type </t>
+  </si>
+  <si>
+    <r>
+      <t>●</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Immediate, some small geometries do disappear while panning and reappear on stopping but that should be fixed already for a newer build</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>●</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>N/A FME cannot read in that geometry so it can’t be compared in FME</t>
+    </r>
+  </si>
+  <si>
+    <t>●	\\fs2\pserv\Projects\GeoBIM\Task1_IFC\screenshots\jovita\task1_form17_58.1.1.2a.png
+●	\\fs2\pserv\Projects\GeoBIM\Task1_IFC\screenshots\jovita\task1_form17_58.1.1.2b.png</t>
+  </si>
+  <si>
+    <t>The object in position 34 is 2m taller than the object in position 24</t>
+  </si>
+  <si>
+    <t>\\fs2\pserv\Projects\GeoBIM\Task1_IFC\screenshots\jovita\task1_form17_62.1.2.png</t>
+  </si>
+  <si>
+    <t>Height was found using the min and max extents from the Feature Information Window of the Data Inspector</t>
+  </si>
+  <si>
+    <t>Normals are unchanged, they should not change on read</t>
+  </si>
+  <si>
+    <t>2019-11-12 17:21:14| 0.9| 0.0|WARN |The IFC reader does not support the following type: 'IfcRevolvedAreaSolid'. All instances of this type will be skipped
+2019-11-12 17:21:14| 0.9| 0.0|WARN |The IFC reader does not support the following type: 'IfcSweptDiskSolid'. All instances of this type will be skipped
+FME doesn’t support IfcRevolved AreaSolid and IfcSweptDiskSolid types yet, PR filed</t>
+  </si>
+  <si>
+    <r>
+      <t>●</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>\\fs2\pserv\Projects\GeoBIM\Task1_IFC\screenshots\jovita\task1_form17_67.png</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Arial"/>
@@ -1570,8 +1692,20 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1581,6 +1715,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1594,10 +1734,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1609,8 +1750,22 @@
     <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -25439,18 +25594,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F34BAAAA-EFC4-664F-A2A1-89241A2C16EA}">
-  <dimension ref="A1:AG369"/>
+  <dimension ref="A1:AJ369"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="X293" workbookViewId="0">
-      <selection activeCell="AE332" sqref="AE332:AG341"/>
+    <sheetView tabSelected="1" topLeftCell="A362" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="AB1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AI363" sqref="AI363"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="23.1640625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="43" style="2" customWidth="1"/>
+    <col min="35" max="35" width="10.83203125" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -25548,7 +25705,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -25645,8 +25802,11 @@
       <c r="AF2" s="1" t="s">
         <v>184</v>
       </c>
+      <c r="AI2" s="14" t="s">
+        <v>184</v>
+      </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -25744,7 +25904,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:36" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -25841,8 +26001,11 @@
       <c r="AF4" s="1" t="s">
         <v>155</v>
       </c>
+      <c r="AI4" s="16" t="s">
+        <v>505</v>
+      </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -25882,8 +26045,11 @@
         <f>HYPERLINK("https://api.typeform.com/responses/files/b4569168aa509f8d9ef9a3b35f759d1d44299732150cfbb1e68554dd8b0f2182/ghost_error.jpeg","https://api.typeform.com/responses/files/b4569168aa509f8d9ef9a3b35f759d1d44299732150cfbb1e68554dd8b0f2182/ghost_error.jpeg")</f>
         <v>https://api.typeform.com/responses/files/b4569168aa509f8d9ef9a3b35f759d1d44299732150cfbb1e68554dd8b0f2182/ghost_error.jpeg</v>
       </c>
+      <c r="AI5" s="6" t="s">
+        <v>506</v>
+      </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:36" ht="300" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -25980,8 +26146,11 @@
       <c r="AF6" s="1" t="s">
         <v>474</v>
       </c>
+      <c r="AI6" s="16" t="s">
+        <v>507</v>
+      </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
@@ -26078,8 +26247,11 @@
       <c r="AF7" s="1" t="s">
         <v>157</v>
       </c>
+      <c r="AI7" s="1" t="s">
+        <v>157</v>
+      </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
         <v>2</v>
       </c>
@@ -26177,7 +26349,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
@@ -26274,8 +26446,11 @@
       <c r="AF9" s="1" t="s">
         <v>157</v>
       </c>
+      <c r="AI9" s="1" t="s">
+        <v>157</v>
+      </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
@@ -26372,8 +26547,12 @@
       <c r="AF10" s="1" t="s">
         <v>157</v>
       </c>
+      <c r="AI10" s="15" t="s">
+        <v>508</v>
+      </c>
+      <c r="AJ10" s="15"/>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
         <v>9</v>
       </c>
@@ -26470,8 +26649,11 @@
       <c r="AF11" s="1" t="s">
         <v>157</v>
       </c>
+      <c r="AI11" s="1" t="s">
+        <v>157</v>
+      </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
         <v>10</v>
       </c>
@@ -26568,8 +26750,11 @@
       <c r="AF12" s="1" t="s">
         <v>157</v>
       </c>
+      <c r="AI12" s="1" t="s">
+        <v>157</v>
+      </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.15">
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -26609,7 +26794,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="14" spans="1:33" s="5" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:36" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="3" t="s">
         <v>11</v>
       </c>
@@ -26708,8 +26893,9 @@
         <f>COUNTIF(E14:Z14,1)</f>
         <v>19</v>
       </c>
+      <c r="AI14" s="11"/>
     </row>
-    <row r="15" spans="1:33" s="5" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:36" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A15" s="3"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
@@ -26746,8 +26932,9 @@
       <c r="AF15" s="7" t="s">
         <v>170</v>
       </c>
+      <c r="AI15" s="11"/>
     </row>
-    <row r="16" spans="1:33" s="5" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:36" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A16" s="3" t="s">
         <v>12</v>
       </c>
@@ -26846,8 +27033,9 @@
         <f>COUNTIF(E16:Z16,"above")</f>
         <v>2</v>
       </c>
+      <c r="AI16" s="11"/>
     </row>
-    <row r="17" spans="1:32" s="5" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:35" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A17" s="3" t="s">
         <v>2</v>
       </c>
@@ -26938,8 +27126,9 @@
       <c r="AD17" s="4" t="s">
         <v>155</v>
       </c>
+      <c r="AI17" s="11"/>
     </row>
-    <row r="18" spans="1:32" s="5" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:35" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A18" s="3"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
@@ -26976,8 +27165,9 @@
       <c r="AF18" s="7" t="s">
         <v>232</v>
       </c>
+      <c r="AI18" s="11"/>
     </row>
-    <row r="19" spans="1:32" s="5" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:35" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A19" s="3" t="s">
         <v>13</v>
       </c>
@@ -27076,8 +27266,9 @@
         <f>COUNTIF(E19:Z19,"faceted")</f>
         <v>0</v>
       </c>
+      <c r="AI19" s="11"/>
     </row>
-    <row r="20" spans="1:32" s="5" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:35" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A20" s="3" t="s">
         <v>2</v>
       </c>
@@ -27168,8 +27359,9 @@
       <c r="AD20" s="4" t="s">
         <v>155</v>
       </c>
+      <c r="AI20" s="11"/>
     </row>
-    <row r="21" spans="1:32" s="5" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:35" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A21" s="3"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
@@ -27200,8 +27392,9 @@
       <c r="AB21" s="4"/>
       <c r="AC21" s="4"/>
       <c r="AD21" s="4"/>
+      <c r="AI21" s="11"/>
     </row>
-    <row r="22" spans="1:32" s="5" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:35" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A22" s="3" t="s">
         <v>14</v>
       </c>
@@ -27295,8 +27488,9 @@
       <c r="AF22" s="8">
         <v>1</v>
       </c>
+      <c r="AI22" s="11"/>
     </row>
-    <row r="23" spans="1:32" s="5" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:35" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A23" s="3" t="s">
         <v>2</v>
       </c>
@@ -27387,8 +27581,9 @@
       <c r="AD23" s="4" t="s">
         <v>155</v>
       </c>
+      <c r="AI23" s="11"/>
     </row>
-    <row r="24" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:35" x14ac:dyDescent="0.15">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -27425,7 +27620,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="25" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A25" s="2" t="s">
         <v>15</v>
       </c>
@@ -27525,7 +27720,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:35" x14ac:dyDescent="0.15">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -27562,7 +27757,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="27" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A27" s="2" t="s">
         <v>16</v>
       </c>
@@ -27662,7 +27857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A28" s="2" t="s">
         <v>2</v>
       </c>
@@ -27754,7 +27949,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="29" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:35" x14ac:dyDescent="0.15">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -27791,7 +27986,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="30" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A30" s="2" t="s">
         <v>17</v>
       </c>
@@ -27891,7 +28086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A31" s="2" t="s">
         <v>2</v>
       </c>
@@ -27983,7 +28178,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="32" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:35" x14ac:dyDescent="0.15">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -28014,7 +28209,7 @@
       <c r="AC32" s="1"/>
       <c r="AD32" s="1"/>
     </row>
-    <row r="33" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A33" s="2" t="s">
         <v>18</v>
       </c>
@@ -28109,7 +28304,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A34" s="2" t="s">
         <v>2</v>
       </c>
@@ -28201,7 +28396,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="35" spans="1:33" s="5" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:35" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A35" s="3"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
@@ -28239,8 +28434,9 @@
         <v>485</v>
       </c>
       <c r="AG35"/>
+      <c r="AI35" s="11"/>
     </row>
-    <row r="36" spans="1:33" s="5" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:35" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A36" s="3" t="s">
         <v>19</v>
       </c>
@@ -28339,8 +28535,9 @@
         <f>COUNTIF(E36:Z36,1)</f>
         <v>16</v>
       </c>
+      <c r="AI36" s="11"/>
     </row>
-    <row r="37" spans="1:33" s="5" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:35" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A37" s="3"/>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
@@ -28377,8 +28574,9 @@
       <c r="AF37" s="6" t="s">
         <v>170</v>
       </c>
+      <c r="AI37" s="11"/>
     </row>
-    <row r="38" spans="1:33" s="5" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:35" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A38" s="3" t="s">
         <v>20</v>
       </c>
@@ -28477,8 +28675,9 @@
         <f>COUNTIF(E38:Z38,"above")</f>
         <v>1</v>
       </c>
+      <c r="AI38" s="11"/>
     </row>
-    <row r="39" spans="1:33" s="5" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:35" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A39" s="3" t="s">
         <v>2</v>
       </c>
@@ -28571,8 +28770,9 @@
       </c>
       <c r="AE39"/>
       <c r="AF39"/>
+      <c r="AI39" s="11"/>
     </row>
-    <row r="40" spans="1:33" s="5" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:35" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A40" s="3"/>
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
@@ -28609,8 +28809,9 @@
       <c r="AF40" s="6" t="s">
         <v>232</v>
       </c>
+      <c r="AI40" s="11"/>
     </row>
-    <row r="41" spans="1:33" s="5" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:35" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A41" s="3" t="s">
         <v>21</v>
       </c>
@@ -28709,8 +28910,9 @@
         <f>COUNTIF(E41:Z41,"faceted")</f>
         <v>0</v>
       </c>
+      <c r="AI41" s="11"/>
     </row>
-    <row r="42" spans="1:33" s="5" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:35" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A42" s="3" t="s">
         <v>2</v>
       </c>
@@ -28801,8 +29003,9 @@
       <c r="AD42" s="4" t="s">
         <v>155</v>
       </c>
+      <c r="AI42" s="11"/>
     </row>
-    <row r="43" spans="1:33" s="5" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:35" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A43" s="3"/>
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
@@ -28842,8 +29045,9 @@
       <c r="AG43" s="7" t="s">
         <v>489</v>
       </c>
+      <c r="AI43" s="11"/>
     </row>
-    <row r="44" spans="1:33" s="5" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:35" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A44" s="3" t="s">
         <v>22</v>
       </c>
@@ -28946,8 +29150,9 @@
         <f>COUNTIF(E44:Z44,"Similar to A, with cilinders at the corners")</f>
         <v>0</v>
       </c>
+      <c r="AI44" s="11"/>
     </row>
-    <row r="45" spans="1:33" s="5" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:35" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A45" s="3" t="s">
         <v>2</v>
       </c>
@@ -29041,8 +29246,9 @@
       <c r="AE45"/>
       <c r="AF45"/>
       <c r="AG45"/>
+      <c r="AI45" s="11"/>
     </row>
-    <row r="46" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:35" x14ac:dyDescent="0.15">
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -29080,7 +29286,7 @@
       </c>
       <c r="AG46" s="5"/>
     </row>
-    <row r="47" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A47" s="2" t="s">
         <v>23</v>
       </c>
@@ -29180,7 +29386,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="48" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:35" x14ac:dyDescent="0.15">
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -51346,7 +51552,7 @@
       </c>
       <c r="AG336" s="5"/>
     </row>
-    <row r="337" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="337" spans="1:35" x14ac:dyDescent="0.15">
       <c r="B337" s="1"/>
       <c r="C337" s="1"/>
       <c r="D337" s="1"/>
@@ -51386,7 +51592,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="338" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="338" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A338" s="2" t="s">
         <v>129</v>
       </c>
@@ -51490,7 +51696,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="339" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="339" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A339" s="2" t="s">
         <v>2</v>
       </c>
@@ -51585,7 +51791,7 @@
       <c r="AF339" s="5"/>
       <c r="AG339" s="5"/>
     </row>
-    <row r="340" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="340" spans="1:35" x14ac:dyDescent="0.15">
       <c r="B340" s="1"/>
       <c r="C340" s="1"/>
       <c r="D340" s="1"/>
@@ -51625,7 +51831,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="341" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="341" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A341" s="2" t="s">
         <v>130</v>
       </c>
@@ -51729,7 +51935,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="342" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="342" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A342" s="2" t="s">
         <v>2</v>
       </c>
@@ -51827,7 +52033,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="343" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="343" spans="1:35" x14ac:dyDescent="0.15">
       <c r="B343" s="1"/>
       <c r="C343" s="1"/>
       <c r="D343" s="1"/>
@@ -51860,7 +52066,7 @@
       <c r="AE343" s="1"/>
       <c r="AF343" s="1"/>
     </row>
-    <row r="344" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="344" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A344" s="2" t="s">
         <v>131</v>
       </c>
@@ -51957,8 +52163,11 @@
       <c r="AF344" s="1" t="s">
         <v>184</v>
       </c>
+      <c r="AI344" s="15" t="s">
+        <v>509</v>
+      </c>
     </row>
-    <row r="345" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="345" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A345" s="2" t="s">
         <v>2</v>
       </c>
@@ -52056,7 +52265,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="346" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="346" spans="1:35" x14ac:dyDescent="0.15">
       <c r="B346" s="1"/>
       <c r="C346" s="1"/>
       <c r="D346" s="1"/>
@@ -52089,7 +52298,7 @@
       <c r="AE346" s="1"/>
       <c r="AF346" s="1"/>
     </row>
-    <row r="347" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="347" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A347" s="2" t="s">
         <v>132</v>
       </c>
@@ -52187,7 +52396,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="348" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="348" spans="1:35" ht="240" x14ac:dyDescent="0.15">
       <c r="A348" s="2" t="s">
         <v>133</v>
       </c>
@@ -52211,8 +52420,11 @@
         <f>HYPERLINK("https://api.typeform.com/responses/files/8ebf691da3d0245c8d28912ac9f378b520487f5eee65d1236680cfcf90a803da/cilinder.jpg","https://api.typeform.com/responses/files/8ebf691da3d0245c8d28912ac9f378b520487f5eee65d1236680cfcf90a803da/cilinder.jpg")</f>
         <v>https://api.typeform.com/responses/files/8ebf691da3d0245c8d28912ac9f378b520487f5eee65d1236680cfcf90a803da/cilinder.jpg</v>
       </c>
+      <c r="AI348" s="16" t="s">
+        <v>510</v>
+      </c>
     </row>
-    <row r="349" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="349" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A349" s="2" t="s">
         <v>134</v>
       </c>
@@ -52309,8 +52521,11 @@
       <c r="AF349" s="1" t="s">
         <v>155</v>
       </c>
+      <c r="AI349" s="17" t="s">
+        <v>513</v>
+      </c>
     </row>
-    <row r="350" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="350" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A350" s="2" t="s">
         <v>135</v>
       </c>
@@ -52408,7 +52623,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="351" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="351" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A351" s="2" t="s">
         <v>2</v>
       </c>
@@ -52506,7 +52721,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="352" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="352" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A352" s="2" t="s">
         <v>136</v>
       </c>
@@ -52603,8 +52818,11 @@
       <c r="AF352" s="1" t="s">
         <v>476</v>
       </c>
+      <c r="AI352" s="6" t="s">
+        <v>511</v>
+      </c>
     </row>
-    <row r="353" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="353" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A353" s="2" t="s">
         <v>137</v>
       </c>
@@ -52628,8 +52846,11 @@
         <f>HYPERLINK("https://api.typeform.com/responses/files/e90e62f3e0aeb0b41f09bfc799eaa0406fc7099c65be3822bed87622e5ba0a0e/hbeam.jpg","https://api.typeform.com/responses/files/e90e62f3e0aeb0b41f09bfc799eaa0406fc7099c65be3822bed87622e5ba0a0e/hbeam.jpg")</f>
         <v>https://api.typeform.com/responses/files/e90e62f3e0aeb0b41f09bfc799eaa0406fc7099c65be3822bed87622e5ba0a0e/hbeam.jpg</v>
       </c>
+      <c r="AI353" s="6" t="s">
+        <v>512</v>
+      </c>
     </row>
-    <row r="354" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="354" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A354" s="2" t="s">
         <v>138</v>
       </c>
@@ -52727,7 +52948,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="355" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="355" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A355" s="2" t="s">
         <v>139</v>
       </c>
@@ -52824,8 +53045,11 @@
       <c r="AF355" s="1" t="s">
         <v>155</v>
       </c>
+      <c r="AI355" s="17" t="s">
+        <v>514</v>
+      </c>
     </row>
-    <row r="356" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="356" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A356" s="2" t="s">
         <v>2</v>
       </c>
@@ -52923,7 +53147,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="357" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="357" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A357" s="2" t="s">
         <v>140</v>
       </c>
@@ -53021,7 +53245,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="358" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="358" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A358" s="2" t="s">
         <v>141</v>
       </c>
@@ -53054,7 +53278,7 @@
         <v>https://api.typeform.com/responses/files/9d1a18b19d7ba32c5d8d2094f5936b99a8a1148b09132c03bce8577319af2ea8/ifcgeometries_shapechanges_CLeoni.pdf</v>
       </c>
     </row>
-    <row r="359" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="359" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A359" s="2" t="s">
         <v>142</v>
       </c>
@@ -53152,7 +53376,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="360" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="360" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A360" s="2" t="s">
         <v>143</v>
       </c>
@@ -53250,7 +53474,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="361" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="361" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A361" s="2" t="s">
         <v>144</v>
       </c>
@@ -53347,8 +53571,11 @@
       <c r="AF361" s="1" t="s">
         <v>157</v>
       </c>
+      <c r="AI361" s="1" t="s">
+        <v>157</v>
+      </c>
     </row>
-    <row r="362" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="362" spans="1:35" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A362" s="2" t="s">
         <v>145</v>
       </c>
@@ -53445,8 +53672,11 @@
       <c r="AF362" s="1" t="s">
         <v>155</v>
       </c>
+      <c r="AI362" s="16" t="s">
+        <v>515</v>
+      </c>
     </row>
-    <row r="363" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="363" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A363" s="2" t="s">
         <v>146</v>
       </c>
@@ -53474,8 +53704,11 @@
         <f>HYPERLINK("https://api.typeform.com/responses/files/a66cb032e8318d86d1467a1a3462e300ca5cdc4c22e3de9fc4bc4a5e1b177e98/ifcgeometries_normals.PNG","https://api.typeform.com/responses/files/a66cb032e8318d86d1467a1a3462e300ca5cdc4c22e3de9fc4bc4a5e1b177e98/ifcgeometries_normals.PNG")</f>
         <v>https://api.typeform.com/responses/files/a66cb032e8318d86d1467a1a3462e300ca5cdc4c22e3de9fc4bc4a5e1b177e98/ifcgeometries_normals.PNG</v>
       </c>
+      <c r="AI363" s="15" t="s">
+        <v>516</v>
+      </c>
     </row>
-    <row r="364" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="364" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A364" s="2" t="s">
         <v>147</v>
       </c>
@@ -53572,8 +53805,11 @@
       <c r="AF364" s="1" t="s">
         <v>478</v>
       </c>
+      <c r="AI364" s="12" t="s">
+        <v>502</v>
+      </c>
     </row>
-    <row r="365" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="365" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A365" s="2" t="s">
         <v>148</v>
       </c>
@@ -53670,8 +53906,11 @@
       <c r="AF365" s="1" t="s">
         <v>479</v>
       </c>
+      <c r="AI365" s="12" t="s">
+        <v>503</v>
+      </c>
     </row>
-    <row r="366" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="366" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A366" s="2" t="s">
         <v>149</v>
       </c>
@@ -53768,8 +54007,11 @@
       <c r="AF366" s="1" t="s">
         <v>480</v>
       </c>
+      <c r="AI366" s="13" t="s">
+        <v>504</v>
+      </c>
     </row>
-    <row r="367" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="367" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A367" s="2" t="s">
         <v>150</v>
       </c>
@@ -53867,7 +54109,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="368" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="368" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A368" s="2" t="s">
         <v>151</v>
       </c>
@@ -54064,6 +54306,9 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="AI366" r:id="rId1" xr:uid="{693961FD-3B12-1A49-A755-FC1C97B5D379}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>